--- a/src/main/resources/61-microservice-recruit-master/pf-resume_structure.xlsx
+++ b/src/main/resources/61-microservice-recruit-master/pf-resume_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="309">
   <si>
     <t>类名</t>
   </si>
@@ -55,7 +55,7 @@
     <t>void</t>
   </si>
   <si>
-    <t>getNextId(org.springframework.data.mongodb.core.MongoTemplate)</t>
+    <t>getNextId(java.lang.String,org.springframework.data.mongodb.core.MongoTemplate)</t>
   </si>
   <si>
     <t>java.lang.Long</t>
@@ -76,7 +76,7 @@
     <t>notifyAll()</t>
   </si>
   <si>
-    <t>getNextIdAndUpdate(org.springframework.data.mongodb.core.MongoTemplate)</t>
+    <t>getNextIdAndUpdate(java.lang.String,org.springframework.data.mongodb.core.MongoTemplate)</t>
   </si>
   <si>
     <t>hashCode()</t>
@@ -10648,7 +10648,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10707,16 +10707,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>301</v>
@@ -10727,7 +10727,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -10744,7 +10744,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -10761,7 +10761,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -10775,16 +10775,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>301</v>
@@ -10792,19 +10792,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -10815,13 +10815,13 @@
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
@@ -10829,13 +10829,13 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" t="s">
-        <v>225</v>
       </c>
       <c r="E11" t="s">
         <v>301</v>
@@ -10846,13 +10846,13 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="E12" t="s">
         <v>301</v>
@@ -10869,7 +10869,7 @@
         <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
         <v>301</v>
@@ -10883,13 +10883,13 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15">
@@ -10900,13 +10900,13 @@
         <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16">
@@ -10917,13 +10917,13 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17">
@@ -10934,13 +10934,13 @@
         <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18">
@@ -10951,10 +10951,10 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
         <v>301</v>
@@ -10968,10 +10968,10 @@
         <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>301</v>
@@ -10985,10 +10985,10 @@
         <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
         <v>301</v>
@@ -11005,7 +11005,7 @@
         <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
         <v>301</v>
@@ -11016,13 +11016,13 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
         <v>301</v>
@@ -11039,7 +11039,7 @@
         <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
         <v>301</v>
@@ -11050,13 +11050,13 @@
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="E24" t="s">
         <v>301</v>
@@ -11070,10 +11070,10 @@
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
         <v>301</v>
@@ -11084,13 +11084,13 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
       </c>
       <c r="E26" t="s">
         <v>301</v>
@@ -11104,10 +11104,10 @@
         <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
         <v>301</v>
@@ -11118,13 +11118,13 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
         <v>301</v>
@@ -11135,13 +11135,13 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
         <v>301</v>
@@ -11152,16 +11152,16 @@
         <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31">
@@ -11169,16 +11169,16 @@
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
@@ -11189,13 +11189,13 @@
         <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
@@ -11206,27 +11206,27 @@
         <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
         <v>301</v>
@@ -11234,19 +11234,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
@@ -11260,10 +11260,10 @@
         <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
@@ -11271,7 +11271,7 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>90</v>
@@ -11280,7 +11280,7 @@
         <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
@@ -11288,7 +11288,7 @@
         <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>90</v>
@@ -11297,7 +11297,7 @@
         <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
@@ -11305,7 +11305,7 @@
         <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>90</v>
@@ -11322,7 +11322,7 @@
         <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>90</v>
@@ -11336,16 +11336,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
         <v>301</v>
@@ -11353,19 +11353,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
@@ -11379,10 +11379,10 @@
         <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44">
@@ -11396,7 +11396,7 @@
         <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
         <v>302</v>
@@ -11413,7 +11413,7 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
         <v>302</v>
@@ -11430,7 +11430,7 @@
         <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
         <v>302</v>
@@ -11447,7 +11447,7 @@
         <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
         <v>302</v>
@@ -11464,7 +11464,7 @@
         <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
         <v>302</v>
@@ -11481,7 +11481,7 @@
         <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>302</v>
@@ -11498,7 +11498,7 @@
         <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
         <v>302</v>
@@ -11515,7 +11515,7 @@
         <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
         <v>302</v>
@@ -11532,7 +11532,7 @@
         <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
         <v>302</v>
@@ -11549,7 +11549,7 @@
         <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>302</v>
@@ -11560,16 +11560,16 @@
         <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55">
@@ -11577,16 +11577,16 @@
         <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56">
@@ -11600,7 +11600,7 @@
         <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
         <v>301</v>
@@ -11617,7 +11617,7 @@
         <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>301</v>
@@ -11634,7 +11634,7 @@
         <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
         <v>301</v>
@@ -11651,7 +11651,7 @@
         <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
         <v>301</v>
@@ -11668,7 +11668,7 @@
         <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>301</v>
@@ -11685,7 +11685,7 @@
         <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>301</v>
@@ -11702,7 +11702,7 @@
         <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E62" t="s">
         <v>301</v>
@@ -11719,7 +11719,7 @@
         <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
         <v>301</v>
@@ -11736,7 +11736,7 @@
         <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>301</v>
@@ -11753,7 +11753,7 @@
         <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
         <v>301</v>
@@ -11764,13 +11764,13 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
         <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
         <v>301</v>
@@ -11781,13 +11781,13 @@
         <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
         <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
         <v>301</v>
@@ -11804,7 +11804,7 @@
         <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
         <v>301</v>
@@ -11821,7 +11821,7 @@
         <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E69" t="s">
         <v>301</v>
@@ -11838,7 +11838,7 @@
         <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
         <v>301</v>
@@ -11855,7 +11855,7 @@
         <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
         <v>301</v>
@@ -11872,7 +11872,7 @@
         <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
         <v>301</v>
@@ -11889,7 +11889,7 @@
         <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
         <v>301</v>
@@ -11906,7 +11906,7 @@
         <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E74" t="s">
         <v>301</v>
@@ -11923,7 +11923,7 @@
         <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
         <v>301</v>
@@ -11940,7 +11940,7 @@
         <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E76" t="s">
         <v>301</v>
@@ -11957,7 +11957,7 @@
         <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
         <v>301</v>
@@ -11965,16 +11965,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
         <v>301</v>
@@ -11982,19 +11982,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E79" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80">
@@ -12008,10 +12008,10 @@
         <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81">
@@ -12025,7 +12025,7 @@
         <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E81" t="s">
         <v>302</v>
@@ -12042,7 +12042,7 @@
         <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E82" t="s">
         <v>302</v>
@@ -12059,7 +12059,7 @@
         <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E83" t="s">
         <v>302</v>
@@ -12070,16 +12070,16 @@
         <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85">
@@ -12087,16 +12087,16 @@
         <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="E85" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86">
@@ -12110,7 +12110,7 @@
         <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
         <v>301</v>
@@ -12127,7 +12127,7 @@
         <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E87" t="s">
         <v>301</v>
@@ -12144,7 +12144,7 @@
         <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E88" t="s">
         <v>301</v>
@@ -12155,13 +12155,13 @@
         <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
         <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E89" t="s">
         <v>301</v>
@@ -12172,13 +12172,13 @@
         <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
         <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="E90" t="s">
         <v>301</v>
@@ -12195,7 +12195,7 @@
         <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E91" t="s">
         <v>301</v>
@@ -12212,7 +12212,7 @@
         <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E92" t="s">
         <v>301</v>
@@ -12229,7 +12229,7 @@
         <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
         <v>301</v>
@@ -12237,16 +12237,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E94" t="s">
         <v>301</v>
@@ -12254,19 +12254,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E95" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96">
@@ -12280,10 +12280,10 @@
         <v>129</v>
       </c>
       <c r="D96" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97">
@@ -12291,7 +12291,7 @@
         <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>129</v>
@@ -12300,7 +12300,7 @@
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98">
@@ -12308,7 +12308,7 @@
         <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>129</v>
@@ -12317,7 +12317,7 @@
         <v>131</v>
       </c>
       <c r="E98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99">
@@ -12325,7 +12325,7 @@
         <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
         <v>129</v>
@@ -12342,7 +12342,7 @@
         <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
         <v>129</v>
@@ -12356,16 +12356,16 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D101" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
@@ -12373,19 +12373,19 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D102" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103">
@@ -12399,10 +12399,10 @@
         <v>132</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="E103" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104">
@@ -12410,7 +12410,7 @@
         <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>132</v>
@@ -12419,7 +12419,7 @@
         <v>134</v>
       </c>
       <c r="E104" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105">
@@ -12427,7 +12427,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>132</v>
@@ -12436,7 +12436,7 @@
         <v>136</v>
       </c>
       <c r="E105" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106">
@@ -12444,7 +12444,7 @@
         <v>132</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
         <v>132</v>
@@ -12461,7 +12461,7 @@
         <v>132</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
         <v>132</v>
@@ -12475,16 +12475,16 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="E108" t="s">
         <v>301</v>
@@ -12492,19 +12492,19 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="E109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110">
@@ -12518,10 +12518,10 @@
         <v>137</v>
       </c>
       <c r="D110" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111">
@@ -12535,7 +12535,7 @@
         <v>137</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E111" t="s">
         <v>302</v>
@@ -12552,7 +12552,7 @@
         <v>137</v>
       </c>
       <c r="D112" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E112" t="s">
         <v>302</v>
@@ -12563,16 +12563,16 @@
         <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>137</v>
       </c>
       <c r="D113" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E113" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114">
@@ -12580,16 +12580,16 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>137</v>
       </c>
       <c r="D114" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E114" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115">
@@ -12603,7 +12603,7 @@
         <v>137</v>
       </c>
       <c r="D115" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E115" t="s">
         <v>301</v>
@@ -12620,7 +12620,7 @@
         <v>137</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E116" t="s">
         <v>301</v>
@@ -12631,13 +12631,13 @@
         <v>137</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>137</v>
       </c>
       <c r="D117" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E117" t="s">
         <v>301</v>
@@ -12648,13 +12648,13 @@
         <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>137</v>
       </c>
       <c r="D118" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E118" t="s">
         <v>301</v>
@@ -12671,7 +12671,7 @@
         <v>137</v>
       </c>
       <c r="D119" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E119" t="s">
         <v>301</v>
@@ -12688,7 +12688,7 @@
         <v>137</v>
       </c>
       <c r="D120" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E120" t="s">
         <v>301</v>
@@ -12696,16 +12696,16 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D121" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E121" t="s">
         <v>301</v>
@@ -12713,19 +12713,19 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123">
@@ -12739,10 +12739,10 @@
         <v>140</v>
       </c>
       <c r="D123" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E123" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124">
@@ -12756,7 +12756,7 @@
         <v>140</v>
       </c>
       <c r="D124" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E124" t="s">
         <v>302</v>
@@ -12767,16 +12767,16 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>140</v>
       </c>
       <c r="D125" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126">
@@ -12784,16 +12784,16 @@
         <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>140</v>
       </c>
       <c r="D126" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127">
@@ -12807,7 +12807,7 @@
         <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E127" t="s">
         <v>301</v>
@@ -12818,13 +12818,13 @@
         <v>140</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
         <v>140</v>
       </c>
       <c r="D128" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="E128" t="s">
         <v>301</v>
@@ -12835,13 +12835,13 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
         <v>140</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E129" t="s">
         <v>301</v>
@@ -12858,7 +12858,7 @@
         <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E130" t="s">
         <v>301</v>
@@ -12866,16 +12866,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D131" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
         <v>301</v>
@@ -12883,19 +12883,19 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D132" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E132" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133">
@@ -12903,13 +12903,13 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>141</v>
       </c>
       <c r="D133" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="E133" t="s">
         <v>301</v>
@@ -12920,7 +12920,7 @@
         <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -12929,21 +12929,21 @@
         <v>142</v>
       </c>
       <c r="E134" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D135" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="E135" t="s">
         <v>301</v>
@@ -12951,19 +12951,19 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D136" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E136" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137">
@@ -12977,10 +12977,10 @@
         <v>144</v>
       </c>
       <c r="D137" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="E137" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138">
@@ -12994,7 +12994,7 @@
         <v>144</v>
       </c>
       <c r="D138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E138" t="s">
         <v>302</v>
@@ -13011,7 +13011,7 @@
         <v>144</v>
       </c>
       <c r="D139" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E139" t="s">
         <v>302</v>
@@ -13022,16 +13022,16 @@
         <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>144</v>
       </c>
       <c r="D140" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141">
@@ -13039,16 +13039,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>144</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142">
@@ -13062,7 +13062,7 @@
         <v>144</v>
       </c>
       <c r="D142" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E142" t="s">
         <v>301</v>
@@ -13079,7 +13079,7 @@
         <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E143" t="s">
         <v>301</v>
@@ -13090,13 +13090,13 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
         <v>144</v>
       </c>
       <c r="D144" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E144" t="s">
         <v>301</v>
@@ -13107,13 +13107,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
         <v>144</v>
       </c>
       <c r="D145" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E145" t="s">
         <v>301</v>
@@ -13130,7 +13130,7 @@
         <v>144</v>
       </c>
       <c r="D146" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E146" t="s">
         <v>301</v>
@@ -13147,7 +13147,7 @@
         <v>144</v>
       </c>
       <c r="D147" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E147" t="s">
         <v>301</v>
@@ -13155,16 +13155,16 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="D148" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="E148" t="s">
         <v>301</v>
@@ -13172,16 +13172,16 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D149" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="E149" t="s">
         <v>301</v>
@@ -13198,10 +13198,10 @@
         <v>86</v>
       </c>
       <c r="D150" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E150" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151">
@@ -13212,13 +13212,13 @@
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="D151" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152">
@@ -13232,7 +13232,7 @@
         <v>86</v>
       </c>
       <c r="D152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E152" t="s">
         <v>302</v>
@@ -13249,7 +13249,7 @@
         <v>86</v>
       </c>
       <c r="D153" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E153" t="s">
         <v>302</v>
@@ -13266,7 +13266,7 @@
         <v>86</v>
       </c>
       <c r="D154" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="E154" t="s">
         <v>302</v>
@@ -13283,7 +13283,7 @@
         <v>86</v>
       </c>
       <c r="D155" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E155" t="s">
         <v>302</v>
@@ -13300,7 +13300,7 @@
         <v>86</v>
       </c>
       <c r="D156" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="E156" t="s">
         <v>302</v>
@@ -13317,7 +13317,7 @@
         <v>86</v>
       </c>
       <c r="D157" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E157" t="s">
         <v>302</v>
@@ -13334,7 +13334,7 @@
         <v>86</v>
       </c>
       <c r="D158" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="E158" t="s">
         <v>302</v>
@@ -13351,7 +13351,7 @@
         <v>86</v>
       </c>
       <c r="D159" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="E159" t="s">
         <v>302</v>
@@ -13368,7 +13368,7 @@
         <v>86</v>
       </c>
       <c r="D160" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E160" t="s">
         <v>302</v>
@@ -13385,7 +13385,7 @@
         <v>86</v>
       </c>
       <c r="D161" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E161" t="s">
         <v>302</v>
@@ -13402,7 +13402,7 @@
         <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="E162" t="s">
         <v>302</v>
@@ -13419,7 +13419,7 @@
         <v>86</v>
       </c>
       <c r="D163" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E163" t="s">
         <v>302</v>
@@ -13430,16 +13430,16 @@
         <v>86</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="D164" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="E164" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165">
@@ -13447,16 +13447,16 @@
         <v>86</v>
       </c>
       <c r="B165" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>86</v>
       </c>
       <c r="D165" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E165" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="166">
@@ -13467,10 +13467,10 @@
         <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="D166" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="E166" t="s">
         <v>301</v>
@@ -13487,7 +13487,7 @@
         <v>86</v>
       </c>
       <c r="D167" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E167" t="s">
         <v>301</v>
@@ -13504,7 +13504,7 @@
         <v>86</v>
       </c>
       <c r="D168" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E168" t="s">
         <v>301</v>
@@ -13521,7 +13521,7 @@
         <v>86</v>
       </c>
       <c r="D169" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="E169" t="s">
         <v>301</v>
@@ -13538,7 +13538,7 @@
         <v>86</v>
       </c>
       <c r="D170" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E170" t="s">
         <v>301</v>
@@ -13555,7 +13555,7 @@
         <v>86</v>
       </c>
       <c r="D171" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="E171" t="s">
         <v>301</v>
@@ -13572,7 +13572,7 @@
         <v>86</v>
       </c>
       <c r="D172" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E172" t="s">
         <v>301</v>
@@ -13589,7 +13589,7 @@
         <v>86</v>
       </c>
       <c r="D173" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="E173" t="s">
         <v>301</v>
@@ -13606,7 +13606,7 @@
         <v>86</v>
       </c>
       <c r="D174" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="E174" t="s">
         <v>301</v>
@@ -13623,7 +13623,7 @@
         <v>86</v>
       </c>
       <c r="D175" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E175" t="s">
         <v>301</v>
@@ -13640,7 +13640,7 @@
         <v>86</v>
       </c>
       <c r="D176" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E176" t="s">
         <v>301</v>
@@ -13657,7 +13657,7 @@
         <v>86</v>
       </c>
       <c r="D177" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="E177" t="s">
         <v>301</v>
@@ -13674,7 +13674,7 @@
         <v>86</v>
       </c>
       <c r="D178" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E178" t="s">
         <v>301</v>
@@ -13685,13 +13685,13 @@
         <v>86</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C179" t="s">
         <v>86</v>
       </c>
       <c r="D179" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="E179" t="s">
         <v>301</v>
@@ -13702,13 +13702,13 @@
         <v>86</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C180" t="s">
         <v>86</v>
       </c>
       <c r="D180" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E180" t="s">
         <v>301</v>
@@ -13725,7 +13725,7 @@
         <v>86</v>
       </c>
       <c r="D181" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E181" t="s">
         <v>301</v>
@@ -13742,7 +13742,7 @@
         <v>86</v>
       </c>
       <c r="D182" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E182" t="s">
         <v>301</v>
@@ -13759,7 +13759,7 @@
         <v>86</v>
       </c>
       <c r="D183" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="E183" t="s">
         <v>301</v>
@@ -13776,7 +13776,7 @@
         <v>86</v>
       </c>
       <c r="D184" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E184" t="s">
         <v>301</v>
@@ -13793,7 +13793,7 @@
         <v>86</v>
       </c>
       <c r="D185" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="E185" t="s">
         <v>301</v>
@@ -13810,7 +13810,7 @@
         <v>86</v>
       </c>
       <c r="D186" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E186" t="s">
         <v>301</v>
@@ -13827,7 +13827,7 @@
         <v>86</v>
       </c>
       <c r="D187" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="E187" t="s">
         <v>301</v>
@@ -13844,7 +13844,7 @@
         <v>86</v>
       </c>
       <c r="D188" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="E188" t="s">
         <v>301</v>
@@ -13861,7 +13861,7 @@
         <v>86</v>
       </c>
       <c r="D189" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E189" t="s">
         <v>301</v>
@@ -13878,7 +13878,7 @@
         <v>86</v>
       </c>
       <c r="D190" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E190" t="s">
         <v>301</v>
@@ -13895,7 +13895,7 @@
         <v>86</v>
       </c>
       <c r="D191" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="E191" t="s">
         <v>301</v>
@@ -13912,7 +13912,7 @@
         <v>86</v>
       </c>
       <c r="D192" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E192" t="s">
         <v>301</v>
@@ -13920,16 +13920,16 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="D193" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="E193" t="s">
         <v>301</v>
@@ -13937,19 +13937,19 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="D194" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E194" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="195">
@@ -13963,10 +13963,10 @@
         <v>174</v>
       </c>
       <c r="D195" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="E195" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="196">
@@ -13980,7 +13980,7 @@
         <v>174</v>
       </c>
       <c r="D196" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E196" t="s">
         <v>302</v>
@@ -13991,16 +13991,16 @@
         <v>174</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>174</v>
       </c>
       <c r="D197" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="E197" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="198">
@@ -14008,16 +14008,16 @@
         <v>174</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>174</v>
       </c>
       <c r="D198" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E198" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="199">
@@ -14031,7 +14031,7 @@
         <v>174</v>
       </c>
       <c r="D199" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E199" t="s">
         <v>301</v>
@@ -14042,13 +14042,13 @@
         <v>174</v>
       </c>
       <c r="B200" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
         <v>174</v>
       </c>
       <c r="D200" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="E200" t="s">
         <v>301</v>
@@ -14059,13 +14059,13 @@
         <v>174</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
         <v>174</v>
       </c>
       <c r="D201" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E201" t="s">
         <v>301</v>
@@ -14082,7 +14082,7 @@
         <v>174</v>
       </c>
       <c r="D202" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E202" t="s">
         <v>301</v>
@@ -14090,16 +14090,16 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C203" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D203" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="E203" t="s">
         <v>301</v>
@@ -14107,19 +14107,19 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D204" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="E204" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="205">
@@ -14133,10 +14133,10 @@
         <v>175</v>
       </c>
       <c r="D205" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="E205" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206">
@@ -14150,7 +14150,7 @@
         <v>175</v>
       </c>
       <c r="D206" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="E206" t="s">
         <v>302</v>
@@ -14161,16 +14161,16 @@
         <v>175</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>175</v>
       </c>
       <c r="D207" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="E207" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="208">
@@ -14178,16 +14178,16 @@
         <v>175</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>175</v>
       </c>
       <c r="D208" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E208" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209">
@@ -14201,7 +14201,7 @@
         <v>175</v>
       </c>
       <c r="D209" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="E209" t="s">
         <v>301</v>
@@ -14212,13 +14212,13 @@
         <v>175</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
         <v>175</v>
       </c>
       <c r="D210" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="E210" t="s">
         <v>301</v>
@@ -14229,13 +14229,13 @@
         <v>175</v>
       </c>
       <c r="B211" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
         <v>175</v>
       </c>
       <c r="D211" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E211" t="s">
         <v>301</v>
@@ -14252,7 +14252,7 @@
         <v>175</v>
       </c>
       <c r="D212" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="E212" t="s">
         <v>301</v>
@@ -14260,16 +14260,16 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C213" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D213" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="E213" t="s">
         <v>301</v>
@@ -14277,16 +14277,16 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C214" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D214" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="E214" t="s">
         <v>301</v>
@@ -14303,10 +14303,10 @@
         <v>181</v>
       </c>
       <c r="D215" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E215" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="216">
@@ -14317,13 +14317,13 @@
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D216" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="E216" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="217">
@@ -14337,7 +14337,7 @@
         <v>181</v>
       </c>
       <c r="D217" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="E217" t="s">
         <v>302</v>
@@ -14348,16 +14348,16 @@
         <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>181</v>
       </c>
       <c r="D218" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="E218" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="219">
@@ -14365,16 +14365,16 @@
         <v>181</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>181</v>
       </c>
       <c r="D219" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220">
@@ -14388,7 +14388,7 @@
         <v>181</v>
       </c>
       <c r="D220" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="E220" t="s">
         <v>301</v>
@@ -14399,13 +14399,13 @@
         <v>181</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D221" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="E221" t="s">
         <v>301</v>
@@ -14416,13 +14416,13 @@
         <v>181</v>
       </c>
       <c r="B222" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
         <v>181</v>
       </c>
       <c r="D222" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="E222" t="s">
         <v>301</v>
@@ -14436,10 +14436,10 @@
         <v>19</v>
       </c>
       <c r="C223" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D223" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="E223" t="s">
         <v>301</v>
@@ -14456,7 +14456,7 @@
         <v>181</v>
       </c>
       <c r="D224" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="E224" t="s">
         <v>301</v>
@@ -14464,16 +14464,16 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B225" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="C225" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D225" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="E225" t="s">
         <v>301</v>
@@ -14481,16 +14481,16 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B226" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="C226" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D226" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E226" t="s">
         <v>301</v>
@@ -14504,12 +14504,46 @@
         <v>217</v>
       </c>
       <c r="C227" t="s">
+        <v>189</v>
+      </c>
+      <c r="D227" t="s">
+        <v>154</v>
+      </c>
+      <c r="E227" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>216</v>
+      </c>
+      <c r="B228" t="s">
+        <v>217</v>
+      </c>
+      <c r="C228" t="s">
+        <v>189</v>
+      </c>
+      <c r="D228" t="s">
+        <v>191</v>
+      </c>
+      <c r="E228" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>216</v>
+      </c>
+      <c r="B229" t="s">
+        <v>217</v>
+      </c>
+      <c r="C229" t="s">
         <v>144</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D229" t="s">
         <v>146</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E229" t="s">
         <v>302</v>
       </c>
     </row>
